--- a/output/boxplot_germany_dls_table.xlsx
+++ b/output/boxplot_germany_dls_table.xlsx
@@ -675,7 +675,7 @@
         <v>3.176470588235294</v>
       </c>
       <c r="K5" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6">
@@ -722,7 +722,7 @@
         <v>4.230718954248366</v>
       </c>
       <c r="K6" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7">
@@ -816,7 +816,7 @@
         <v>1.270152505446623</v>
       </c>
       <c r="K8" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9">
@@ -863,7 +863,7 @@
         <v>3.539446623093682</v>
       </c>
       <c r="K9" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10">
@@ -910,7 +910,7 @@
         <v>3.798779956427015</v>
       </c>
       <c r="K10" t="n">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11">
@@ -1004,7 +1004,7 @@
         <v>1.483174</v>
       </c>
       <c r="K12" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13">
@@ -1098,7 +1098,7 @@
         <v>1.518603</v>
       </c>
       <c r="K14" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15">
@@ -1239,7 +1239,7 @@
         <v>2.414666666666667</v>
       </c>
       <c r="K17" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18">
@@ -1423,7 +1423,7 @@
         <v>2.746666666666667</v>
       </c>
       <c r="K21" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="22">
@@ -1517,7 +1517,7 @@
         <v>0.7407407407407407</v>
       </c>
       <c r="K23" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24">
@@ -1564,7 +1564,7 @@
         <v>3.744444444444444</v>
       </c>
       <c r="K24" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25">
@@ -1611,7 +1611,7 @@
         <v>0.5730120481927711</v>
       </c>
       <c r="K25" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26">
@@ -1658,7 +1658,7 @@
         <v>1.351646586345381</v>
       </c>
       <c r="K26" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27">
@@ -1705,7 +1705,7 @@
         <v>5.341365461847389</v>
       </c>
       <c r="K27" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28">

--- a/output/boxplot_germany_dls_table.xlsx
+++ b/output/boxplot_germany_dls_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,17 +540,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EU28+CH</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>36.79</v>
+        <v>49</v>
       </c>
       <c r="I3" t="n">
         <v>15.3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.404575163398693</v>
+        <v>3.202614379084967</v>
       </c>
       <c r="K3" t="n">
-        <v>302</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -597,12 +597,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>High Ambition</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>all</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -619,22 +619,22 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>49</v>
+        <v>48.6</v>
       </c>
       <c r="I4" t="n">
         <v>15.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.202614379084967</v>
+        <v>3.176470588235294</v>
       </c>
       <c r="K4" t="n">
-        <v>194</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Ragwitz et al. (2023)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -644,12 +644,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>Nachfragereduktion</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>total</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -666,22 +666,22 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>48.6</v>
+        <v>64.73</v>
       </c>
       <c r="I5" t="n">
         <v>15.3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.176470588235294</v>
+        <v>4.230718954248366</v>
       </c>
       <c r="K5" t="n">
-        <v>505</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ragwitz et al. (2023)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nachfragereduktion</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>64.73</v>
+        <v>68.39</v>
       </c>
       <c r="I6" t="n">
         <v>15.3</v>
       </c>
       <c r="J6" t="n">
-        <v>4.230718954248366</v>
+        <v>4.469934640522876</v>
       </c>
       <c r="K6" t="n">
-        <v>415</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>Climact (no year)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -738,17 +738,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Level 4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -756,26 +756,26 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>68.39</v>
+        <v>2915</v>
       </c>
       <c r="I7" t="n">
-        <v>15.3</v>
+        <v>2295</v>
       </c>
       <c r="J7" t="n">
-        <v>4.469934640522876</v>
+        <v>1.270152505446623</v>
       </c>
       <c r="K7" t="n">
-        <v>89</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Climact (no year)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Level 4</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -807,22 +807,22 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2915</v>
+        <v>8123.03</v>
       </c>
       <c r="I8" t="n">
         <v>2295</v>
       </c>
       <c r="J8" t="n">
-        <v>1.270152505446623</v>
+        <v>3.539446623093682</v>
       </c>
       <c r="K8" t="n">
-        <v>439</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -854,22 +854,22 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8123.03</v>
+        <v>8718.200000000001</v>
       </c>
       <c r="I9" t="n">
         <v>2295</v>
       </c>
       <c r="J9" t="n">
-        <v>3.539446623093682</v>
+        <v>3.798779956427015</v>
       </c>
       <c r="K9" t="n">
-        <v>328</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -901,22 +901,22 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8718.200000000001</v>
+        <v>8122.17</v>
       </c>
       <c r="I10" t="n">
         <v>2295</v>
       </c>
       <c r="J10" t="n">
-        <v>3.798779956427015</v>
+        <v>3.539071895424837</v>
       </c>
       <c r="K10" t="n">
-        <v>517</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>Climact (no year)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -926,17 +926,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Level 4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -944,26 +944,26 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8122.17</v>
+        <v>14831.74</v>
       </c>
       <c r="I11" t="n">
-        <v>2295</v>
+        <v>10000</v>
       </c>
       <c r="J11" t="n">
-        <v>3.539071895424837</v>
+        <v>1.483174</v>
       </c>
       <c r="K11" t="n">
-        <v>132</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Climact (no year)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Level 4</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -995,22 +995,22 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>14831.74</v>
+        <v>12301.43</v>
       </c>
       <c r="I12" t="n">
         <v>10000</v>
       </c>
       <c r="J12" t="n">
-        <v>1.483174</v>
+        <v>1.230143</v>
       </c>
       <c r="K12" t="n">
-        <v>429</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1020,12 +1020,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Transport</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1042,22 +1042,22 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>12301.43</v>
+        <v>15186.03</v>
       </c>
       <c r="I13" t="n">
         <v>10000</v>
       </c>
       <c r="J13" t="n">
-        <v>1.230143</v>
+        <v>1.518603</v>
       </c>
       <c r="K13" t="n">
-        <v>313</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1067,12 +1067,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1089,16 +1089,16 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>15186.03</v>
+        <v>13337.6</v>
       </c>
       <c r="I14" t="n">
         <v>10000</v>
       </c>
       <c r="J14" t="n">
-        <v>1.518603</v>
+        <v>1.33376</v>
       </c>
       <c r="K14" t="n">
-        <v>510</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
@@ -1136,22 +1136,22 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>13337.6</v>
+        <v>16019.03</v>
       </c>
       <c r="I15" t="n">
         <v>10000</v>
       </c>
       <c r="J15" t="n">
-        <v>1.33376</v>
+        <v>1.601903</v>
       </c>
       <c r="K15" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>Climact (no year)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1161,17 +1161,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Level 4</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1179,26 +1179,26 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>m²/capita</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>16019.03</v>
+        <v>36.22</v>
       </c>
       <c r="I16" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="J16" t="n">
-        <v>1.601903</v>
+        <v>2.414666666666667</v>
       </c>
       <c r="K16" t="n">
-        <v>92</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Climact (no year)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Level 4</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1226,26 +1226,26 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>m²/capita</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>36.22</v>
+        <v>37.07</v>
       </c>
       <c r="I17" t="n">
         <v>15</v>
       </c>
       <c r="J17" t="n">
-        <v>2.414666666666667</v>
+        <v>2.471333333333333</v>
       </c>
       <c r="K17" t="n">
-        <v>423</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1273,26 +1273,26 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m^2/person</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>37.07</v>
+        <v>30</v>
       </c>
       <c r="I18" t="n">
         <v>15</v>
       </c>
       <c r="J18" t="n">
-        <v>2.471333333333333</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>308</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>Fishman et al. (2021)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1302,14 +1302,10 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>High Ambition</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Buildings</t>
-        </is>
-      </c>
+          <t>based on LED</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>living space per capita</t>
@@ -1320,26 +1316,26 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>m^2/person</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I19" t="n">
         <v>15</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="K19" t="n">
-        <v>196</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fishman et al. (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1349,10 +1345,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>based on LED</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>DE path</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Buildings</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>living space per capita</t>
@@ -1363,26 +1363,26 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>32</v>
+        <v>41.2</v>
       </c>
       <c r="I20" t="n">
         <v>15</v>
       </c>
       <c r="J20" t="n">
-        <v>2.133333333333333</v>
+        <v>2.746666666666667</v>
       </c>
       <c r="K20" t="n">
-        <v>83</v>
+        <v>508</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1410,26 +1410,26 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>41.2</v>
+        <v>41.17</v>
       </c>
       <c r="I21" t="n">
         <v>15</v>
       </c>
       <c r="J21" t="n">
-        <v>2.746666666666667</v>
+        <v>2.744666666666667</v>
       </c>
       <c r="K21" t="n">
-        <v>508</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>Climact (no year)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Level 4</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>per capita floor area in commercial and public buildings</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1457,26 +1457,26 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/capita</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>41.17</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>15</v>
+        <v>5.4</v>
       </c>
       <c r="J22" t="n">
-        <v>2.744666666666667</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="K22" t="n">
-        <v>114</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Climact (no year)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Level 4</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1504,26 +1504,26 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>m²/capita</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>20.22</v>
       </c>
       <c r="I23" t="n">
         <v>5.4</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7407407407407407</v>
+        <v>3.744444444444444</v>
       </c>
       <c r="K23" t="n">
-        <v>443</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1533,17 +1533,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Agriculture</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>per capita floor area in commercial and public buildings</t>
+          <t>meat consumption per capita and day</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1551,255 +1551,20 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>g/cap/day</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>20.22</v>
+        <v>42.86</v>
       </c>
       <c r="I24" t="n">
-        <v>5.4</v>
+        <v>62.25</v>
       </c>
       <c r="J24" t="n">
-        <v>3.744444444444444</v>
+        <v>0.6885140562248996</v>
       </c>
       <c r="K24" t="n">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Climact (no year)</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Level 4</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>meat consumption per capita and day</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>kcal/cap/day</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>35.67</v>
-      </c>
-      <c r="I25" t="n">
-        <v>62.25</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5730120481927711</v>
-      </c>
-      <c r="K25" t="n">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Costa et al. (2021) / EUCalc</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Life / Lever 4</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>meat consumption per capita and day</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>kcal/cap/day</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>84.14</v>
-      </c>
-      <c r="I26" t="n">
-        <v>62.25</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.351646586345381</v>
-      </c>
-      <c r="K26" t="n">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>négaWatt et al. (2023)</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>DE path</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>meat consumption per capita and day</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>kcal meat/cap/day</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>332.5</v>
-      </c>
-      <c r="I27" t="n">
-        <v>62.25</v>
-      </c>
-      <c r="J27" t="n">
-        <v>5.341365461847389</v>
-      </c>
-      <c r="K27" t="n">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>UBA (2020)</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>GreenSupreme</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>meat consumption per capita and day</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>g/cap/day</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>42.86</v>
-      </c>
-      <c r="I28" t="n">
-        <v>62.25</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6885140562248996</v>
-      </c>
-      <c r="K28" t="n">
         <v>127</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>UBA (2020)</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>GreenSupreme</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>meat consumption per capita and day</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>kcal meat/cap/day</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>107.14</v>
-      </c>
-      <c r="I29" t="n">
-        <v>62.25</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.721124497991968</v>
-      </c>
-      <c r="K29" t="n">
-        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/output/boxplot_germany_dls_table.xlsx
+++ b/output/boxplot_germany_dls_table.xlsx
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>g/cap/day</t>
+          <t>kg/cap/day</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>42.86</v>
+        <v>0.04</v>
       </c>
       <c r="I24" t="n">
         <v>62.25</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6885140562248996</v>
+        <v>0.000642570281124498</v>
       </c>
       <c r="K24" t="n">
         <v>127</v>

--- a/output/boxplot_germany_dls_table.xlsx
+++ b/output/boxplot_germany_dls_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>41.02</v>
+        <v>49</v>
       </c>
       <c r="I2" t="n">
         <v>15.3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.681045751633987</v>
+        <v>3.202614379084967</v>
       </c>
       <c r="K2" t="n">
-        <v>300</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>High Ambition</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>49</v>
+        <v>48.6</v>
       </c>
       <c r="I3" t="n">
         <v>15.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.202614379084967</v>
+        <v>3.176470588235294</v>
       </c>
       <c r="K3" t="n">
-        <v>194</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -597,12 +597,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -619,22 +619,22 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>48.6</v>
+        <v>68.39</v>
       </c>
       <c r="I4" t="n">
         <v>15.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.176470588235294</v>
+        <v>4.469934640522876</v>
       </c>
       <c r="K4" t="n">
-        <v>505</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ragwitz et al. (2023)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -644,38 +644,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nachfragereduktion</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2045</v>
+        <v>2050</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>64.73</v>
+        <v>8718.200000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>15.3</v>
+        <v>2295</v>
       </c>
       <c r="J5" t="n">
-        <v>4.230718954248366</v>
+        <v>3.798779956427015</v>
       </c>
       <c r="K5" t="n">
-        <v>415</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6">
@@ -696,12 +696,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>final energy demand per capita and year</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -709,26 +709,26 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>GJ/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>68.39</v>
+        <v>8122.17</v>
       </c>
       <c r="I6" t="n">
-        <v>15.3</v>
+        <v>2295</v>
       </c>
       <c r="J6" t="n">
-        <v>4.469934640522876</v>
+        <v>3.539071895424837</v>
       </c>
       <c r="K6" t="n">
-        <v>89</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Climact (no year)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -738,17 +738,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Level 4</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -756,26 +756,26 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2915</v>
+        <v>15186.03</v>
       </c>
       <c r="I7" t="n">
-        <v>2295</v>
+        <v>10000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.270152505446623</v>
+        <v>1.518603</v>
       </c>
       <c r="K7" t="n">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -785,17 +785,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -803,26 +803,26 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8123.03</v>
+        <v>13860.6</v>
       </c>
       <c r="I8" t="n">
-        <v>2295</v>
+        <v>10000</v>
       </c>
       <c r="J8" t="n">
-        <v>3.539446623093682</v>
+        <v>1.38606</v>
       </c>
       <c r="K8" t="n">
-        <v>328</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>UBA (2020)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -832,17 +832,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -850,20 +850,20 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8718.200000000001</v>
+        <v>13337.6</v>
       </c>
       <c r="I9" t="n">
-        <v>2295</v>
+        <v>10000</v>
       </c>
       <c r="J9" t="n">
-        <v>3.798779956427015</v>
+        <v>1.33376</v>
       </c>
       <c r="K9" t="n">
-        <v>517</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
@@ -884,12 +884,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -897,26 +897,26 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8122.17</v>
+        <v>16019.03</v>
       </c>
       <c r="I10" t="n">
-        <v>2295</v>
+        <v>10000</v>
       </c>
       <c r="J10" t="n">
-        <v>3.539071895424837</v>
+        <v>1.601903</v>
       </c>
       <c r="K10" t="n">
-        <v>132</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Climact (no year)</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -926,17 +926,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Level 4</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -944,26 +944,26 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>14831.74</v>
+        <v>30</v>
       </c>
       <c r="I11" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>1.483174</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>429</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Fishman et al. (2021)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -973,17 +973,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>based on LED</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -991,20 +991,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>12301.43</v>
+        <v>32</v>
       </c>
       <c r="I12" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
-        <v>1.230143</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="K12" t="n">
-        <v>313</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
@@ -1025,12 +1025,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1038,20 +1038,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>15186.03</v>
+        <v>41.2</v>
       </c>
       <c r="I13" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>1.518603</v>
+        <v>2.746666666666667</v>
       </c>
       <c r="K13" t="n">
-        <v>510</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14">
@@ -1072,12 +1072,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1085,20 +1085,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>13337.6</v>
+        <v>41.17</v>
       </c>
       <c r="I14" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="J14" t="n">
-        <v>1.33376</v>
+        <v>2.744666666666667</v>
       </c>
       <c r="K14" t="n">
-        <v>91</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
@@ -1119,12 +1119,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>meat consumption per capita and day</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1132,439 +1132,20 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>kg/cap/day</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>16019.03</v>
+        <v>0.04</v>
       </c>
       <c r="I15" t="n">
-        <v>10000</v>
+        <v>62.25</v>
       </c>
       <c r="J15" t="n">
-        <v>1.601903</v>
+        <v>0.000642570281124498</v>
       </c>
       <c r="K15" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Climact (no year)</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Level 4</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Buildings</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>living space per capita</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>m²/capita</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>36.22</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.414666666666667</v>
-      </c>
-      <c r="K16" t="n">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Costa et al. (2021) / EUCalc</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Life / Lever 4</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Buildings</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>living space per capita</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>m²/cap</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>37.07</v>
-      </c>
-      <c r="I17" t="n">
-        <v>15</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.471333333333333</v>
-      </c>
-      <c r="K17" t="n">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Eerma et al. (2022)</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>High Ambition</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Buildings</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>living space per capita</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>m^2/person</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>30</v>
-      </c>
-      <c r="I18" t="n">
-        <v>15</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Fishman et al. (2021)</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>based on LED</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>living space per capita</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>m2/cap</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>32</v>
-      </c>
-      <c r="I19" t="n">
-        <v>15</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.133333333333333</v>
-      </c>
-      <c r="K19" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>négaWatt et al. (2023)</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>DE path</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Buildings</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>living space per capita</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>m²/cap</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.746666666666667</v>
-      </c>
-      <c r="K20" t="n">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>UBA (2020)</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>GreenSupreme</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Buildings</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>living space per capita</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>m2/cap</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>41.17</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.744666666666667</v>
-      </c>
-      <c r="K21" t="n">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Climact (no year)</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Level 4</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Buildings</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>per capita floor area in commercial and public buildings</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>m²/capita</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="K22" t="n">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Costa et al. (2021) / EUCalc</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Life / Lever 4</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Buildings</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>per capita floor area in commercial and public buildings</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>m²/cap</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>20.22</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.744444444444444</v>
-      </c>
-      <c r="K23" t="n">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>UBA (2020)</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>GreenSupreme</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Agriculture</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>meat consumption per capita and day</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>kg/cap/day</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I24" t="n">
-        <v>62.25</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.000642570281124498</v>
-      </c>
-      <c r="K24" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/output/boxplot_germany_dls_table.xlsx
+++ b/output/boxplot_germany_dls_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>High Ambition</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>49</v>
+        <v>41.02</v>
       </c>
       <c r="I2" t="n">
         <v>15.3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.202614379084967</v>
+        <v>2.681045751633987</v>
       </c>
       <c r="K2" t="n">
-        <v>192</v>
+        <v>829</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>48.6</v>
+        <v>49</v>
       </c>
       <c r="I3" t="n">
         <v>15.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.176470588235294</v>
+        <v>3.202614379084967</v>
       </c>
       <c r="K3" t="n">
-        <v>435</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>68.39</v>
+        <v>48.6</v>
       </c>
       <c r="I4" t="n">
         <v>15.3</v>
       </c>
       <c r="J4" t="n">
-        <v>4.469934640522876</v>
+        <v>3.176470588235294</v>
       </c>
       <c r="K4" t="n">
-        <v>85</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5">
@@ -675,13 +675,13 @@
         <v>3.798779956427015</v>
       </c>
       <c r="K5" t="n">
-        <v>450</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -722,13 +722,13 @@
         <v>3.539071895424837</v>
       </c>
       <c r="K6" t="n">
-        <v>128</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>15186.03</v>
+        <v>12465.3</v>
       </c>
       <c r="I7" t="n">
         <v>10000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.518603</v>
+        <v>1.24653</v>
       </c>
       <c r="K7" t="n">
-        <v>441</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -807,22 +807,22 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>13860.6</v>
+        <v>16019.03</v>
       </c>
       <c r="I8" t="n">
         <v>10000</v>
       </c>
       <c r="J8" t="n">
-        <v>1.38606</v>
+        <v>1.601903</v>
       </c>
       <c r="K8" t="n">
-        <v>442</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -854,22 +854,22 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>13337.6</v>
+        <v>15186.03</v>
       </c>
       <c r="I9" t="n">
         <v>10000</v>
       </c>
       <c r="J9" t="n">
-        <v>1.33376</v>
+        <v>1.518603</v>
       </c>
       <c r="K9" t="n">
-        <v>87</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Buildings</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -897,20 +897,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>16019.03</v>
+        <v>37.07</v>
       </c>
       <c r="I10" t="n">
-        <v>10000</v>
+        <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>1.601903</v>
+        <v>2.471333333333333</v>
       </c>
       <c r="K10" t="n">
-        <v>88</v>
+        <v>831</v>
       </c>
     </row>
     <row r="11">
@@ -957,7 +957,7 @@
         <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>194</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12">
@@ -1004,7 +1004,7 @@
         <v>2.133333333333333</v>
       </c>
       <c r="K12" t="n">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
@@ -1051,13 +1051,13 @@
         <v>2.746666666666667</v>
       </c>
       <c r="K13" t="n">
-        <v>438</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1098,13 +1098,13 @@
         <v>2.744666666666667</v>
       </c>
       <c r="K14" t="n">
-        <v>110</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1114,38 +1114,85 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>Life / Lever 4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Buildings</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>per capita floor area in commercial and public buildings</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>m²/cap</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.744444444444444</v>
+      </c>
+      <c r="K15" t="n">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>UBA (2021)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>GreenSupreme</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Food</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>meat consumption per capita and day</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G15" t="inlineStr">
+      <c r="F16" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>kg/cap/day</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>0.04</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>62.25</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J16" t="n">
         <v>0.000642570281124498</v>
       </c>
-      <c r="K15" t="n">
-        <v>123</v>
+      <c r="K16" t="n">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/output/boxplot_germany_dls_table.xlsx
+++ b/output/boxplot_germany_dls_table.xlsx
@@ -534,7 +534,7 @@
         <v>2.681045751633987</v>
       </c>
       <c r="K2" t="n">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="3">
@@ -628,7 +628,7 @@
         <v>3.176470588235294</v>
       </c>
       <c r="K4" t="n">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5">
@@ -675,7 +675,7 @@
         <v>3.798779956427015</v>
       </c>
       <c r="K5" t="n">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6">
@@ -910,7 +910,7 @@
         <v>2.471333333333333</v>
       </c>
       <c r="K10" t="n">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="11">
@@ -1051,7 +1051,7 @@
         <v>2.746666666666667</v>
       </c>
       <c r="K13" t="n">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14">
@@ -1145,7 +1145,7 @@
         <v>3.744444444444444</v>
       </c>
       <c r="K15" t="n">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="16">

--- a/output/boxplot_germany_dls_table.xlsx
+++ b/output/boxplot_germany_dls_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,7 +634,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -644,17 +644,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Freight</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>final energy demand per capita and year</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -662,26 +662,26 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>GJ/cap/year</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8718.200000000001</v>
+        <v>54.07</v>
       </c>
       <c r="I5" t="n">
-        <v>2295</v>
+        <v>15.3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.798779956427015</v>
+        <v>3.533986928104575</v>
       </c>
       <c r="K5" t="n">
-        <v>501</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8122.17</v>
+        <v>8718.200000000001</v>
       </c>
       <c r="I6" t="n">
         <v>2295</v>
       </c>
       <c r="J6" t="n">
-        <v>3.539071895424837</v>
+        <v>3.798779956427015</v>
       </c>
       <c r="K6" t="n">
-        <v>158</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -738,17 +738,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mobility</t>
+          <t>Freight</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>transported goods per capita and year</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -756,26 +756,26 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>pkm/cap/year</t>
+          <t>tkm/cap/year</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>12465.3</v>
+        <v>8122.17</v>
       </c>
       <c r="I7" t="n">
-        <v>10000</v>
+        <v>2295</v>
       </c>
       <c r="J7" t="n">
-        <v>1.24653</v>
+        <v>3.539071895424837</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -807,22 +807,22 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>16019.03</v>
+        <v>12465.3</v>
       </c>
       <c r="I8" t="n">
         <v>10000</v>
       </c>
       <c r="J8" t="n">
-        <v>1.601903</v>
+        <v>1.24653</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -854,22 +854,22 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>15186.03</v>
+        <v>16019.03</v>
       </c>
       <c r="I9" t="n">
         <v>10000</v>
       </c>
       <c r="J9" t="n">
-        <v>1.518603</v>
+        <v>1.601903</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Buildings</t>
+          <t>Mobility</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>living space per capita</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -897,26 +897,26 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>37.07</v>
+        <v>15186.03</v>
       </c>
       <c r="I10" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="J10" t="n">
-        <v>2.471333333333333</v>
+        <v>1.518603</v>
       </c>
       <c r="K10" t="n">
-        <v>832</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Eerma et al. (2022)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>High Ambition</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>30</v>
+        <v>37.07</v>
       </c>
       <c r="I11" t="n">
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>2.471333333333333</v>
       </c>
       <c r="K11" t="n">
-        <v>232</v>
+        <v>832</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fishman et al. (2021)</t>
+          <t>Eerma et al. (2022)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>based on LED</t>
+          <t>High Ambition</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -991,26 +991,26 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I12" t="n">
         <v>15</v>
       </c>
       <c r="J12" t="n">
-        <v>2.133333333333333</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>96</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Fishman et al. (2021)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>based on LED</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1038,26 +1038,26 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>41.2</v>
+        <v>32</v>
       </c>
       <c r="I13" t="n">
         <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>2.746666666666667</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="K13" t="n">
-        <v>489</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1085,26 +1085,26 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>m2/cap</t>
+          <t>m²/cap</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>41.17</v>
+        <v>41.2</v>
       </c>
       <c r="I14" t="n">
         <v>15</v>
       </c>
       <c r="J14" t="n">
-        <v>2.744666666666667</v>
+        <v>2.746666666666667</v>
       </c>
       <c r="K14" t="n">
-        <v>139</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>per capita floor area in commercial and public buildings</t>
+          <t>living space per capita</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1132,66 +1132,113 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>m²/cap</t>
+          <t>m2/cap</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>20.22</v>
+        <v>41.17</v>
       </c>
       <c r="I15" t="n">
-        <v>5.4</v>
+        <v>15</v>
       </c>
       <c r="J15" t="n">
-        <v>3.744444444444444</v>
+        <v>2.744666666666667</v>
       </c>
       <c r="K15" t="n">
-        <v>833</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Costa et al. (2021) / EUCalc</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Life / Lever 4</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Buildings</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>per capita floor area in commercial and public buildings</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>m²/cap</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>20.22</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.744444444444444</v>
+      </c>
+      <c r="K16" t="n">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>UBA (2021)</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>GreenSupreme</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Food</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>meat consumption per capita and day</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>2050</v>
-      </c>
-      <c r="G16" t="inlineStr">
+      <c r="F17" t="n">
+        <v>2050</v>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>kg/cap/day</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>0.04</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I17" t="n">
         <v>62.25</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J17" t="n">
         <v>0.000642570281124498</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K17" t="n">
         <v>153</v>
       </c>
     </row>
